--- a/Module 1 Exam.xlsx
+++ b/Module 1 Exam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\2021\Module 1\Exam1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\2021\Module 1\Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEBE7C4-E9AD-4F10-8407-AE6E55CA2ADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A236A7-8C1B-4336-B131-C38CA68091D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="5280" windowWidth="28800" windowHeight="15435" firstSheet="3" activeTab="7" xr2:uid="{323F0F3C-FE1A-4D44-954C-92BC19342023}"/>
+    <workbookView xWindow="-13695" yWindow="4050" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{323F0F3C-FE1A-4D44-954C-92BC19342023}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Programming" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Linear Programming'!$H$11:$H$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Linear Programming'!$H$11:$H$13</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Linear Programming'!$H$12:$H$13</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
@@ -59,9 +59,9 @@
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Linear Programming'!$J$11:$J$14</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Linear Programming'!$J$11:$J$13</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Linear Programming'!$J$12:$J$13</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -78,7 +78,7 @@
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="158">
   <si>
     <t>Obj coef</t>
   </si>
@@ -215,12 +215,6 @@
     </r>
   </si>
   <si>
-    <t>Mineable</t>
-  </si>
-  <si>
-    <t>Not mineable</t>
-  </si>
-  <si>
     <t>Female Salary</t>
   </si>
   <si>
@@ -621,6 +615,15 @@
   </si>
   <si>
     <t>Residuals</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -859,16 +862,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2708,8 +2711,8 @@
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="264560"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2818,7 +2821,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2909,8 +2912,8 @@
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="264560"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -3019,7 +3022,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -3115,8 +3118,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="264560"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3218,7 +3221,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3302,8 +3305,8 @@
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="264560"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -3412,7 +3415,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -3510,8 +3513,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="264560"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3582,7 +3585,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3991,7 +3994,7 @@
   <dimension ref="C3:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4004,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>0.82</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6">
-        <v>1.04</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -4017,7 +4020,7 @@
       </c>
       <c r="D4" s="1">
         <f>SUMPRODUCT(D3:F3,D8:F8)</f>
-        <v>9960</v>
+        <v>51.999999999999993</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
@@ -4044,10 +4047,10 @@
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D8" s="3">
-        <v>7200</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
-        <v>3899.9999999999995</v>
+        <v>2.9999999999999996</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -4070,65 +4073,69 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="H11">
         <f>SUMPRODUCT($D$8:$F$8,D11:F11)</f>
-        <v>0</v>
+        <v>10.999999999999998</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="J11">
-        <v>8100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="H12">
         <f>SUMPRODUCT($D$8:$F$8,D12:F12)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="J12">
-        <v>3000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D13" s="4">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="4">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="F13" s="7"/>
       <c r="H13">
         <f>SUMPRODUCT($D$8:$F$8,D13:F13)</f>
-        <v>8100</v>
+        <v>18</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="J13">
-        <v>8100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.4</v>
-      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="7"/>
       <c r="H14">
         <f>SUMPRODUCT($D$8:$F$8,D14:F14)</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>8</v>
@@ -4146,8 +4153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22ABFC94-5701-4DE7-9CA4-6215B29AD6DD}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4181,7 +4188,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="B2">
         <f>1/500</f>
@@ -4205,7 +4212,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="B3">
         <f>499/500</f>
@@ -4284,10 +4291,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4306,16 +4313,16 @@
         <v>80.150000000000006</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4326,7 +4333,7 @@
         <v>67.849999999999994</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <f>AVERAGE(B2:B195)</f>
@@ -4345,7 +4352,7 @@
         <v>33.5</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <f>MEDIAN(B2:B195)</f>
@@ -4364,7 +4371,7 @@
         <v>61.1</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <f>_xlfn.MODE.SNGL(B2:B195)</f>
@@ -4383,10 +4390,10 @@
         <v>69.349999999999994</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <f>_xlfn.VAR.S(B2:B195)</f>
@@ -4405,7 +4412,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <f>_xlfn.STDEV.S(B2:B195)</f>
@@ -4424,7 +4431,7 @@
         <v>69.05</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <f>MAX(B2:B195)-MIN(B2:B195)</f>
@@ -4443,7 +4450,7 @@
         <v>81.95</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <f>_xlfn.QUARTILE.INC(B2:B195, 1)</f>
@@ -4462,7 +4469,7 @@
         <v>72.8</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <f>_xlfn.QUARTILE.INC(B2:B195,3)</f>
@@ -4481,7 +4488,7 @@
         <v>85.7</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <f>F11-F10</f>
@@ -4500,7 +4507,7 @@
         <v>53.9</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <f>_xlfn.PERCENTILE.INC(B2:B195, 0.1)</f>
@@ -4519,7 +4526,7 @@
         <v>82.85</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <f>_xlfn.PERCENTILE.INC(B2:B195, 0.9)</f>
@@ -4538,10 +4545,10 @@
         <v>78.05</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <f>SKEW(B2:B195)</f>
@@ -4560,7 +4567,7 @@
         <v>81.650000000000006</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <f>KURT(B2:B195)</f>
@@ -4579,7 +4586,7 @@
         <v>62.9</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17">
         <f>F16+3</f>
@@ -5693,15 +5700,15 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>0.2</v>
@@ -5709,13 +5716,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>93.915862892381156</v>
@@ -5723,28 +5730,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>0.2</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <f>H2*H3</f>
         <v>18.783172578476233</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5756,7 +5763,7 @@
         <v>3.5184372088831996E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -5766,12 +5773,12 @@
         <v>9.9996919949199951E-3</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5781,14 +5788,14 @@
         <v>0.13194139533312005</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I7" s="9">
         <f>1-I6</f>
         <v>0.99000030800507999</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5800,7 +5807,7 @@
         <v>0.23089744183296002</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5830,7 +5837,7 @@
         <v>0.103182294319104</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5851,7 +5858,7 @@
         <v>1.3819057274879993E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <v>50</v>
@@ -5866,7 +5873,7 @@
         <v>3.4547643187200008E-3</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14">
         <v>70</v>
@@ -5890,7 +5897,7 @@
         <v>1.0076395929599992E-4</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5902,7 +5909,7 @@
         <v>1.1450449920000001E-5</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17">
         <v>65</v>
@@ -5921,7 +5928,7 @@
         <v>9.5420416000000059E-7</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H18">
         <v>55</v>
@@ -5940,7 +5947,7 @@
         <v>5.505024000000009E-8</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I19" s="9">
         <f>I17/I18</f>
@@ -5967,12 +5974,12 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <f>SUM(C14:C21)</f>
@@ -5981,7 +5988,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H24">
         <f>80/60</f>
@@ -5993,10 +6000,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -6007,10 +6014,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H26" s="9">
         <f>_xlfn.EXPON.DIST(H25,H24,TRUE)</f>
@@ -6022,21 +6029,21 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>304.43803967694322</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H31">
         <v>1.6</v>
@@ -6044,13 +6051,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -6058,25 +6065,25 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33">
         <f>0.99*300</f>
         <v>297</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -6088,14 +6095,14 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B35">
         <f>_xlfn.NORM.DIST(B33,B31,B32,TRUE)</f>
         <v>9.9998672723737353E-5</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9">
         <f>1-I34</f>
@@ -6104,7 +6111,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <f>1-B35</f>
@@ -6113,14 +6120,14 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" s="9">
         <f>B36*1000</f>
         <v>999.9000013272763</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -6133,37 +6140,37 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
         <v>93</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>7.8</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2">
         <v>7.8</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J2">
         <v>7.5</v>
@@ -6171,19 +6178,19 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="12">
         <v>7.416666666666667</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="12">
         <v>7.416666666666667</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3" s="12">
         <v>7.35</v>
@@ -6191,19 +6198,19 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="13">
         <v>6.6180000000000003</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G4" s="13">
         <v>6.1340000000000003</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J4" s="13">
         <v>2.1</v>
@@ -6211,21 +6218,21 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="12">
         <f>SQRT(D4)</f>
         <v>2.5725473756570549</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="12">
         <f>SQRT(G4)</f>
         <v>2.4766913412857892</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J5" s="12">
         <f>SQRT(J4)</f>
@@ -6234,19 +6241,19 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="13">
         <v>300</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="13">
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J6" s="13">
         <v>100</v>
@@ -6254,21 +6261,21 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="12">
         <f>D5/SQRT(D6)</f>
         <v>0.14852609198386657</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="12">
         <f>G5/SQRT(G6)</f>
         <v>0.24766913412857891</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J7" s="12">
         <f>J5/SQRT(J6)</f>
@@ -6277,21 +6284,21 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="12">
         <f>(D3-D2)/D7</f>
         <v>-2.5809157718562465</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="12">
         <f>(G3-G2)/G7</f>
         <v>-1.5477638531021918</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J8" s="12">
         <f>ABS((J3-J2)/J7)</f>
@@ -6300,21 +6307,21 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="14">
         <f>NORMSDIST(D8)</f>
         <v>4.9269310070840511E-3</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" s="14">
         <f>1-NORMSDIST(G8)</f>
         <v>0.9391604188620698</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J9" s="14">
         <f>2*NORMSDIST(-J8)</f>
@@ -6323,7 +6330,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>0.05</v>
@@ -6331,7 +6338,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <f>D3+NORMSINV(D11/2)*D7</f>
@@ -6340,7 +6347,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <f>D3+NORMSINV(1-D11/2)*D7</f>
@@ -6349,12 +6356,12 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -6362,7 +6369,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D16">
         <f>(D6-1)*D4/D15</f>
@@ -6371,21 +6378,21 @@
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17">
         <f>_xlfn.CHISQ.DIST(D16,D6-1,TRUE)</f>
         <v>0.99985408731281189</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17">
         <f>1-_xlfn.CHISQ.DIST(D16,D6-1,TRUE)</f>
         <v>1.4591268718811001E-4</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J17">
         <f>2*(1-_xlfn.CHISQ.DIST(D16,D6-1,TRUE))</f>
@@ -6394,7 +6401,7 @@
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -6418,10 +6425,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -6432,7 +6439,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -6451,7 +6458,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6462,19 +6469,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="G5" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>117</v>
-      </c>
       <c r="H5" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -6485,7 +6492,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="19">
         <v>300</v>
@@ -6508,7 +6515,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="20">
         <v>300</v>
@@ -6547,7 +6554,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6558,25 +6565,25 @@
         <v>6</v>
       </c>
       <c r="D11" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="G11" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6587,7 +6594,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" s="19">
         <v>9.3750000000163709</v>
@@ -6616,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="19">
         <v>4118.5833333333258</v>
@@ -6654,7 +6661,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="20">
         <v>4127.9583333333421</v>
@@ -6691,7 +6698,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6711,10 +6718,10 @@
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6725,7 +6732,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="19">
         <v>7.416666666666667</v>
@@ -6742,7 +6749,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="19">
         <v>6.6184503901895244</v>
@@ -6759,7 +6766,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E23" s="19">
         <v>300</v>
@@ -6776,7 +6783,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E24" s="19">
         <v>299</v>
@@ -6808,7 +6815,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E26" s="19">
         <v>0.24996752872095718</v>
@@ -6823,7 +6830,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E27" s="20">
         <v>0.82650315083388903</v>
@@ -9032,7 +9039,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9044,12 +9051,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10">
         <v>7.8933333333333335</v>
@@ -9057,7 +9064,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="10">
         <v>2.2116948711109652</v>
@@ -9065,7 +9072,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="10">
         <v>0.12769226292012303</v>
@@ -9073,7 +9080,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="10">
         <v>7.5</v>
@@ -9081,21 +9088,21 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="15">
         <v>0.05</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <f>_xlfn.NORM.S.INV(1-C9)</f>
@@ -9110,38 +9117,38 @@
         <v>1.9599639845400536</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <f>C5+(C10*C4)</f>
         <v>7.7100350817978054</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>7.9</v>
@@ -9149,12 +9156,12 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -9162,12 +9169,12 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18">
         <f>(C11-E14)/C4</f>
@@ -9176,7 +9183,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="15">
         <f>1-_xlfn.NORM.S.DIST(C18,TRUE)</f>
@@ -9185,7 +9192,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="15">
         <f>1-C19</f>
@@ -9202,7 +9209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000763F4-673D-42B1-A49A-8B2E2CE5BE16}">
   <dimension ref="A1:L298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -9222,10 +9229,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -9236,7 +9243,7 @@
         <v>37.85</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9255,7 +9262,7 @@
         <v>48.35</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" s="28"/>
     </row>
@@ -9267,7 +9274,7 @@
         <v>44.9</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" s="19">
         <v>0.82298888840562923</v>
@@ -9281,7 +9288,7 @@
         <v>33.5</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" s="19">
         <v>0.67731071043913327</v>
@@ -9295,7 +9302,7 @@
         <v>47.45</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E7" s="19">
         <v>0.67611997505329979</v>
@@ -9309,7 +9316,7 @@
         <v>49.25</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E8" s="19">
         <v>7.6927333645277534</v>
@@ -9323,7 +9330,7 @@
         <v>50.3</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="20">
         <v>273</v>
@@ -9345,7 +9352,7 @@
         <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9357,19 +9364,19 @@
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -9380,7 +9387,7 @@
         <v>49.85</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -9406,7 +9413,7 @@
         <v>56.9</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E14" s="19">
         <v>271</v>
@@ -9428,7 +9435,7 @@
         <v>62.6</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="20">
         <v>272</v>
@@ -9457,28 +9464,28 @@
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="21" t="s">
+      <c r="J17" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="21" t="s">
+      <c r="K17" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="L17" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -9489,7 +9496,7 @@
         <v>63.05</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E18" s="19">
         <v>55.179784645670409</v>
@@ -9524,7 +9531,7 @@
         <v>49.4</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E19" s="20">
         <v>1.8085359552670388</v>
@@ -9583,7 +9590,7 @@
         <v>56.9</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9602,13 +9609,13 @@
         <v>54.5</v>
       </c>
       <c r="D25" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>154</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
